--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_sim/tests/multialgorithm/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_lang/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="720" windowWidth="25600" windowHeight="8760" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="25020" windowHeight="8760" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
     <sheet name="Parameters" sheetId="5" r:id="rId9"/>
     <sheet name="References" sheetId="6" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId11"/>
+    <sheet name="Database references" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1264,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,27 +26,32 @@
     <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -108,253 +113,253 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + xspecie_1[e] ==&gt; specie_1[c] + xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: xspecie_1 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + xspecie_1[e] ==&gt; specie_1[c] + xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: xspecie_1 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -698,7 +703,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -791,53 +796,53 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -846,13 +851,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -863,13 +868,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -880,13 +885,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -930,19 +935,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -980,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1013,12 +1018,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1030,13 +1035,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>100</v>
@@ -1045,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1086,18 +1091,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1105,12 +1110,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1130,19 +1132,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1153,56 +1156,54 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1241,22 +1242,22 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>121</v>
@@ -1278,13 +1279,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
@@ -1310,12 +1311,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1323,15 +1324,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1350,21 +1343,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1375,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -1387,41 +1380,33 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1440,20 +1425,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1464,54 +1450,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1528,23 +1506,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1555,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
@@ -1570,162 +1549,139 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>44</v>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1754,31 +1710,31 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0.000148</v>
@@ -1786,7 +1742,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>0.0002</v>
@@ -1794,7 +1750,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0.0005</v>
@@ -1802,7 +1758,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0.0005</v>
@@ -1810,7 +1766,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.001</v>
@@ -1818,7 +1774,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0.002</v>
@@ -1840,18 +1796,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1859,15 +1815,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1887,18 +1840,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1906,12 +1859,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1933,16 +1883,16 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1954,39 +1904,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E2" s="8" t="n">
         <v>0</v>
@@ -1998,16 +1948,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0</v>
@@ -2019,16 +1969,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>1</v>
@@ -2040,16 +1990,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -2061,16 +2011,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,22 +36,27 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -239,9 +244,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">xspecie_1[e]</t>
   </si>
   <si>
@@ -363,9 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -703,7 +711,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -796,25 +804,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -825,24 +833,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -851,13 +859,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -868,13 +876,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -885,13 +893,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -938,10 +946,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1018,12 +1026,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1035,16 +1043,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1055,10 +1063,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1067,10 +1075,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1134,16 +1142,16 @@
   </sheetPr>
   <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -1156,46 +1164,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -1233,34 +1241,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1361,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="2" width="8.78542510121457"/>
@@ -1434,9 +1442,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
@@ -1515,12 +1523,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
@@ -1698,24 +1706,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1726,58 +1734,79 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0.000148</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>0.0002</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.001</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0.002</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1847,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1859,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1889,10 +1918,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1904,19 +1933,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>13</v>
@@ -1927,16 +1956,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="8" t="n">
         <v>0</v>
@@ -1948,16 +1977,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0</v>
@@ -1969,16 +1998,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>1</v>
@@ -1990,16 +2019,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -2014,13 +2043,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,23 +13,24 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
@@ -37,26 +38,51 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -68,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -235,6 +261,39 @@
     <t xml:space="preserve">metabolite</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -244,27 +303,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">xspecie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
@@ -359,12 +400,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -552,7 +587,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,6 +609,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,9 +837,169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -803,19 +1010,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -826,24 +1033,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -852,13 +1059,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -869,13 +1076,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -886,13 +1093,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -912,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -939,10 +1146,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -962,7 +1169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -986,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1006,7 +1213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1031,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1051,10 +1258,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1063,10 +1270,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1106,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1123,7 +1330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1148,46 +1355,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -1206,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1224,34 +1431,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1543,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1666,27 +1873,189 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1022" min="6" style="6" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1695,70 +2064,70 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>0.000148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="8" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="8" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="8" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="8" t="n">
         <v>0.001</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="8" t="n">
         <v>0.002</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>59</v>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1796,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1813,7 +2182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1837,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1852,164 +2221,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,8 +19,8 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
@@ -43,6 +43,9 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -53,6 +56,9 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -63,6 +69,9 @@
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
@@ -73,6 +82,9 @@
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -83,6 +95,9 @@
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -94,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -159,244 +174,244 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + xspecie_1[e] ==&gt; specie_1[c] + xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: xspecie_1 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + xspecie_1[e] ==&gt; specie_1[c] + xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: xspecie_1 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -481,7 +496,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -509,6 +524,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -587,7 +617,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,15 +630,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,23 +670,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,137 +891,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="6" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" s="7" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1010,19 +1056,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1032,79 +1078,79 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="8" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="C5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>0.0003</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E5" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>0.0003</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -1124,10 +1170,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,18 +1193,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1174,10 +1218,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1193,12 +1241,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1226,11 +1280,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="6" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,10 +1298,10 @@
         <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1257,22 +1311,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1313,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1343,11 +1397,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="6" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1421,7 @@
         <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>112</v>
@@ -1446,16 +1500,16 @@
         <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>124</v>
@@ -1543,60 +1597,62 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1022" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1021" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMI1" s="3"/>
+      <c r="AMJ1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1623,11 +1679,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="6" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1645,31 +1701,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="8" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="8" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1698,11 +1754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="6" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,19 +1766,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1732,127 +1788,127 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1887,9 +1943,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1901,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1915,101 +1971,101 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2086,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2040,22 +2096,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1022" min="6" style="6" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1022" min="6" style="10" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2065,69 +2121,69 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>0.000148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="12" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>69</v>
+      <c r="C3" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="8" t="n">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>69</v>
+      <c r="C4" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="12" t="n">
         <v>0.002</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>69</v>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -2206,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,20 +17,21 @@
     <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="dFBA objectives" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Reactions" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Rate laws" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass components" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Database references" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
@@ -46,6 +47,9 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -59,45 +63,57 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -109,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="129">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -174,9 +190,6 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
     <t xml:space="preserve">submodel_1</t>
   </si>
   <si>
@@ -393,22 +406,37 @@
     <t xml:space="preserve">K m</t>
   </si>
   <si>
+    <t xml:space="preserve">reaction_1-forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">forward</t>
   </si>
   <si>
     <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
   </si>
   <si>
+    <t xml:space="preserve">reaction_2-forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">k_cat * xspecie_1[c]</t>
   </si>
   <si>
+    <t xml:space="preserve">reaction_3-forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_4[c] / k_m</t>
   </si>
   <si>
+    <t xml:space="preserve">reaction_3-backward</t>
+  </si>
+  <si>
     <t xml:space="preserve">backward</t>
   </si>
   <si>
     <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4-forward</t>
   </si>
   <si>
     <t xml:space="preserve">Biomass reaction</t>
@@ -617,7 +645,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -668,6 +696,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -883,6 +915,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -896,130 +982,130 @@
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="E2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="E3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="E5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1038,119 +1124,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="8" t="n">
+      <c r="E3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>2000</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="E4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>0.0003</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="G4" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="8" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>0.0003</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="G5" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="8" t="n">
+      <c r="E6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>0.0003</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="G6" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -1165,7 +1272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1193,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1213,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1241,13 +1348,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1267,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1292,16 +1399,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1312,10 +1419,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -1324,10 +1431,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1343,15 +1450,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1359,7 +1466,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1367,10 +1474,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1409,46 +1519,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -1467,7 +1577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1485,34 +1595,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1597,18 +1707,19 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1021" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1020" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1021" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1622,37 +1733,35 @@
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="3"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1702,30 +1811,30 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>4.58E-017</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>1E-012</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1766,19 +1875,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1789,10 +1898,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>1</v>
@@ -1801,16 +1910,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>2</v>
@@ -1819,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>3</v>
@@ -1837,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
@@ -1855,16 +1964,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
@@ -1873,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>6</v>
@@ -1891,15 +2000,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>10</v>
@@ -1908,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1943,9 +2052,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1957,10 +2066,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1971,101 +2080,101 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2105,13 +2214,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2122,68 +2231,68 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="12" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2202,10 +2311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2221,10 +2330,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2243,10 +2355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2254,7 +2366,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2262,10 +2374,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -50,6 +50,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -66,6 +68,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -82,22 +86,26 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -114,6 +122,8 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -125,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -328,9 +338,27 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
+    <t xml:space="preserve">conc-specie_1[e]</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">conc-xspecie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_6[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
@@ -400,12 +428,6 @@
     <t xml:space="preserve">Equation</t>
   </si>
   <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
     <t xml:space="preserve">reaction_1-forward</t>
   </si>
   <si>
@@ -418,13 +440,13 @@
     <t xml:space="preserve">reaction_2-forward</t>
   </si>
   <si>
-    <t xml:space="preserve">k_cat * xspecie_1[c]</t>
+    <t xml:space="preserve">k_cat_2 * xspecie_1[c]</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_3-forward</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
+    <t xml:space="preserve">specie_4[c] / k_m_3</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_3-backward</t>
@@ -445,67 +467,70 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
+    <t xml:space="preserve">fractionDryWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimensionless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ref-0006]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_m_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fractionDryWeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimensionless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Ref-0006]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Taxon</t>
@@ -645,7 +670,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,6 +751,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -927,9 +956,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="13" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -941,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -972,7 +1001,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,19 +1018,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>13</v>
@@ -1012,16 +1041,16 @@
     </row>
     <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -1033,16 +1062,16 @@
     </row>
     <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>0</v>
@@ -1054,16 +1083,16 @@
     </row>
     <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -1075,16 +1104,16 @@
     </row>
     <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>
@@ -1099,13 +1128,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1129,10 +1158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1141,124 +1170,96 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0.001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>0.001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1348,10 +1349,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>64</v>
@@ -1379,66 +1380,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="6" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1022" min="7" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="n">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>111</v>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="20" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="20" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1474,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1519,46 +1534,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -1595,22 +1610,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
@@ -1619,10 +1634,10 @@
         <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2069,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2193,106 +2208,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="11" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1022" min="6" style="10" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="10" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="D2" s="12" t="n">
         <v>0.000148</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="D3" s="12" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="D4" s="12" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="D5" s="12" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="D6" s="12" t="n">
         <v>0.001</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="D7" s="12" t="n">
         <v>0.002</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
+      <c r="E7" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -2374,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,30 +28,30 @@
     <sheet name="Database references" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="135">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -215,6 +215,9 @@
     <t xml:space="preserve">RNA degradation</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Initial volume</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
     <t xml:space="preserve">Cell</t>
   </si>
   <si>
+    <t xml:space="preserve">physical_3d</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
   </si>
   <si>
@@ -246,9 +252,6 @@
   </si>
   <si>
     <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">specie_1</t>
@@ -856,7 +859,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="C3 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,7 +954,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="1" sqref="C3 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -970,10 +973,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -1018,19 +1021,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>13</v>
@@ -1041,16 +1044,16 @@
     </row>
     <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -1062,16 +1065,16 @@
     </row>
     <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>0</v>
@@ -1083,16 +1086,16 @@
     </row>
     <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -1104,16 +1107,16 @@
     </row>
     <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>
@@ -1125,16 +1128,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1160,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="C3 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1177,13 +1180,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1194,72 +1197,72 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1288,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="G41" activeCellId="1" sqref="C3 G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1301,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1333,7 +1336,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="1" sqref="C3 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,13 +1352,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1387,7 +1390,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I11" activeCellId="1" sqref="C3 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1405,10 +1408,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -1419,24 +1422,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="20" t="n">
@@ -1445,7 +1448,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="20" t="n">
@@ -1473,7 +1476,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="C3 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1489,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1517,7 +1520,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="C3 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1534,46 +1537,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -1600,7 +1603,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,34 +1613,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1662,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1727,7 +1730,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="1" sqref="C3 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1795,16 +1798,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="6" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1818,42 +1820,51 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="D3" s="8" t="n">
         <v>1E-012</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:E3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1873,7 +1884,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C3 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1890,19 +1901,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1913,10 +1924,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>1</v>
@@ -1925,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>2</v>
@@ -1943,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>3</v>
@@ -1961,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
@@ -1979,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
@@ -1997,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>6</v>
@@ -2015,15 +2026,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>10</v>
@@ -2032,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2071,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="1" sqref="C3 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2081,10 +2092,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -2095,101 +2106,101 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2226,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="1" sqref="C3 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2236,13 +2247,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -2253,86 +2264,86 @@
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2365,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C3 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -2398,7 +2409,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C3 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2414,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -52,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -70,6 +71,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -88,24 +90,26 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -124,6 +128,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -135,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -176,9 +181,24 @@
     <t xml:space="preserve">wc_lang version</t>
   </si>
   <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author email</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASP_test</t>
   </si>
   <si>
@@ -437,9 +457,15 @@
     <t xml:space="preserve">forward</t>
   </si>
   <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
     <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
   </si>
   <si>
+    <t xml:space="preserve">s^-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">reaction_2-forward</t>
   </si>
   <si>
@@ -485,13 +511,16 @@
     <t xml:space="preserve">k_cat_2</t>
   </si>
   <si>
+    <t xml:space="preserve">k_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">k_m_3</t>
   </si>
   <si>
+    <t xml:space="preserve">K_m</t>
+  </si>
+  <si>
     <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
   </si>
   <si>
     <t xml:space="preserve">Editor</t>
@@ -584,6 +613,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -591,7 +621,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -682,19 +711,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +755,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,11 +779,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,10 +885,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="C3 C15"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,9 +952,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -954,35 +1008,35 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="1" sqref="C3 D6"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="13" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1021,39 +1075,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -1065,16 +1119,16 @@
     </row>
     <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>0</v>
@@ -1086,16 +1140,16 @@
     </row>
     <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -1107,16 +1161,16 @@
     </row>
     <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>
@@ -1128,16 +1182,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1161,108 +1215,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="C3 H3"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D6" s="19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="E6" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1378,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" activeCellId="1" sqref="C3 G41"/>
+      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1304,13 +1394,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1426,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="1" sqref="C3 E2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,19 +1442,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1383,80 +1473,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" activeCellId="1" sqref="C3 I11"/>
+      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1022" min="7" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="4" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="20" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="20" t="n">
         <v>0.001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1476,7 +1578,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="C3 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1492,13 +1594,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1622,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="C3 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,49 +1639,49 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1705,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1613,34 +1715,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1764,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1675,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,28 +1785,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1730,56 +1832,56 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="1" sqref="C3 D2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1020" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1023" min="1021" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1020" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1021" style="4" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AMH1" s="3"/>
-      <c r="AMI1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1902,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1817,50 +1919,50 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>1E-012</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1986,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C3 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1901,33 +2003,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>1</v>
@@ -1936,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>2</v>
@@ -1954,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>3</v>
@@ -1972,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
@@ -1990,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
@@ -2008,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>6</v>
@@ -2026,15 +2128,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>10</v>
@@ -2043,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2173,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="1" sqref="C3 A6"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2080,7 +2182,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2092,115 +2194,115 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2328,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="1" sqref="C3 B1"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2247,103 +2349,103 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2467,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C3 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2381,13 +2483,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2511,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C3 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2425,13 +2527,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -72,6 +73,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -91,6 +93,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -110,6 +113,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -129,6 +133,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -140,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="142">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -446,9 +451,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_1-forward</t>
@@ -1013,9 +1015,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="13" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1217,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1226,7 +1228,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>72</v>
@@ -1257,102 +1259,102 @@
     </row>
     <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>70</v>
@@ -1475,7 +1477,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1515,31 +1517,31 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="20" t="n">
         <v>2000</v>
@@ -1547,11 +1549,11 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="20" t="n">
         <v>0.001</v>
@@ -1639,46 +1641,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -1715,19 +1717,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>81</v>
@@ -1742,7 +1744,7 @@
         <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2184,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,8 +20,8 @@
     <sheet name="dFBA objectives" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Reactions" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Rate laws" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Biomass components" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="dFBA net reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="dFBA net components" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
@@ -54,6 +54,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -74,6 +76,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -94,6 +98,8 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -114,6 +120,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -134,6 +142,8 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -145,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -492,7 +502,7 @@
     <t xml:space="preserve">reaction_4-forward</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass reaction</t>
+    <t xml:space="preserve">dFBA net reaction</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -559,9 +569,6 @@
   </si>
   <si>
     <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -741,8 +748,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -755,10 +766,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1015,10 +1022,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1060,7 +1067,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,7 +1226,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1280,7 @@
       <c r="F2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1293,7 +1300,7 @@
       <c r="F3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1313,7 +1320,7 @@
       <c r="F4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1333,7 +1340,7 @@
       <c r="F5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1353,7 +1360,7 @@
       <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1428,7 +1435,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,45 +1713,49 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1987,166 +1998,169 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="6" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="9" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2175,7 +2189,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2184,7 +2198,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2237,7 +2251,7 @@
       <c r="C4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2248,7 +2262,7 @@
       <c r="C5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2259,7 +2273,7 @@
       <c r="C6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2270,7 +2284,7 @@
       <c r="C7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2281,7 +2295,7 @@
       <c r="C8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2292,7 +2306,7 @@
       <c r="C9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2303,7 +2317,7 @@
       <c r="C10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2337,10 +2351,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="11" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="10" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="12" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,13 +2384,13 @@
       <c r="A2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="13" t="n">
         <v>0.000148</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2384,13 +2398,13 @@
       <c r="A3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="13" t="n">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2398,13 +2412,13 @@
       <c r="A4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="13" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2412,13 +2426,13 @@
       <c r="A5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2426,13 +2440,13 @@
       <c r="A6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="13" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2440,13 +2454,13 @@
       <c r="A7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,59 +25,60 @@
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Database references" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -100,6 +101,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -122,6 +124,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -144,6 +147,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -155,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -205,6 +209,9 @@
     <t xml:space="preserve">Author email</t>
   </si>
   <si>
+    <t xml:space="preserve">Database references</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
@@ -566,18 +573,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
   </si>
 </sst>
 </file>
@@ -894,10 +889,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -981,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -989,6 +984,11 @@
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1010,21 +1010,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1036,16 +1036,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1064,16 +1067,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="6" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="6" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1084,39 +1087,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -1124,20 +1130,21 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>0</v>
@@ -1145,20 +1152,21 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -1167,19 +1175,20 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>
@@ -1188,19 +1197,20 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1224,10 +1234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1235,7 +1245,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1243,126 +1253,134 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1380,22 +1398,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1403,13 +1421,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1428,22 +1449,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1451,19 +1472,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1482,21 +1506,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="4" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1507,48 +1530,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>120</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="20" t="n">
         <v>2000</v>
@@ -1556,11 +1582,11 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="20" t="n">
         <v>0.001</v>
@@ -1584,18 +1610,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1603,13 +1629,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1628,69 +1657,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="6" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="5" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1706,78 +1737,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1790,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,28 +1766,33 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1845,14 +1818,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1020" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1023" min="1021" style="4" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1021" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="4" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1863,38 +1835,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMH1" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="AMI1" s="4"/>
-      <c r="AMJ1" s="0"/>
+      <c r="AMJ1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1913,10 +1887,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1932,54 +1906,59 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:F3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1996,17 +1975,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="9" width="8.78542510121457"/>
   </cols>
@@ -2019,33 +1998,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>1</v>
@@ -2054,16 +2036,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>2</v>
@@ -2072,16 +2055,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>3</v>
@@ -2090,16 +2074,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>4</v>
@@ -2108,16 +2093,17 @@
         <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>5</v>
@@ -2126,16 +2112,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="9" t="n">
         <v>6</v>
@@ -2144,15 +2131,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="9" t="n">
         <v>10</v>
@@ -2161,11 +2149,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I6"/>
+  <autoFilter ref="A1:J6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2182,14 +2170,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2198,11 +2186,11 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,116 +2198,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2337,14 +2335,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2353,8 +2351,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="12" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="12" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="12" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="12" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="11" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,104 +2363,113 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="13" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="13" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="13" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="13" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="13" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2480,18 +2487,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2499,13 +2506,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2524,18 +2534,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2543,13 +2553,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,6 +56,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -79,6 +80,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -102,6 +104,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -125,6 +128,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -148,6 +152,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -159,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -302,6 +307,9 @@
     <t xml:space="preserve">specie_name_1</t>
   </si>
   <si>
+    <t xml:space="preserve">CHOP</t>
+  </si>
+  <si>
     <t xml:space="preserve">pseudo_species</t>
   </si>
   <si>
@@ -311,28 +319,43 @@
     <t xml:space="preserve">specie_name_2</t>
   </si>
   <si>
+    <t xml:space="preserve">C1HN5O3PNa1Cl</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_3</t>
   </si>
   <si>
     <t xml:space="preserve">specie_name_3</t>
   </si>
   <si>
+    <t xml:space="preserve">C2H2N10O6P2Na2Cl2</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_4</t>
   </si>
   <si>
     <t xml:space="preserve">specie_name_4</t>
   </si>
   <si>
+    <t xml:space="preserve">C5H5N25O15P5Na5Cl5</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_5</t>
   </si>
   <si>
     <t xml:space="preserve">specie_name_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Na2Cl2</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_6</t>
   </si>
   <si>
     <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5H5N25O15P5Na1Cl1</t>
   </si>
   <si>
     <t xml:space="preserve">biomass</t>
@@ -585,7 +608,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -632,14 +655,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -706,7 +721,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,23 +778,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,9 +1033,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1036,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1069,150 +1080,156 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="6" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="43.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>86</v>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="16" t="n">
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="16" t="n">
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="16" t="n">
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="16" t="n">
+      <c r="D5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="n">
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1253,19 +1270,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1279,106 +1296,106 @@
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>105</v>
+      <c r="E4" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1421,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1472,13 +1489,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1533,10 +1550,10 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1550,45 +1567,45 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="20" t="n">
+        <v>129</v>
+      </c>
+      <c r="D3" s="19" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="20" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" s="19" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -1629,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1659,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1676,46 +1693,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1977,17 +1994,19 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="47.1902834008097"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="9" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2029,127 +2048,149 @@
       <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>47</v>
+      </c>
       <c r="E2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2227,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2198,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2215,7 +2256,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>45</v>
@@ -2226,10 +2267,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>38</v>
@@ -2237,7 +2278,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>45</v>
@@ -2249,10 +2290,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>34</v>
@@ -2261,10 +2302,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>34</v>
@@ -2273,10 +2314,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>34</v>
@@ -2285,10 +2326,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>34</v>
@@ -2297,10 +2338,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>34</v>
@@ -2309,10 +2350,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>34</v>
@@ -2363,13 +2404,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2383,91 +2424,91 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D2" s="13" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D3" s="13" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D4" s="13" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" s="13" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -2506,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2553,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,13 +24,14 @@
     <sheet name="dFBA net components" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Evidence" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
@@ -57,6 +58,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -81,6 +84,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -105,6 +110,8 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -129,30 +136,34 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -164,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -560,6 +571,24 @@
   </si>
   <si>
     <t xml:space="preserve">K_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature (C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidence</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -608,7 +637,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -632,10 +661,9 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -648,15 +676,8 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -721,12 +742,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,72 +755,36 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -902,102 +887,104 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1028,15 +1015,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1085,15 +1072,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="43.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1109,127 +1095,127 @@
       <c r="D1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1253,16 +1239,20 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1294,110 +1284,105 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1422,31 +1407,31 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1473,37 +1458,37 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1530,13 +1515,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1566,46 +1550,44 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -1629,32 +1611,36 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1674,18 +1660,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1693,46 +1760,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1761,54 +1828,57 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1828,23 +1898,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1021" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="4" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,28 +1932,26 @@
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AMI1" s="4"/>
-      <c r="AMJ1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1906,71 +1973,75 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1994,19 +2065,19 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="9" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="47.1902834008097"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2042,154 +2113,153 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="0"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2218,147 +2288,140 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2383,134 +2446,133 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="12" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2530,32 +2592,36 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2577,32 +2643,36 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,38 +28,39 @@
     <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -86,6 +87,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -112,6 +114,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -138,6 +141,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -164,6 +168,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -175,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -276,7 +281,10 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial volume</t>
+    <t xml:space="preserve">Mean volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean volume units</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -286,6 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve">physical_3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -1020,9 +1031,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1034,10 +1045,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1078,7 +1089,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1090,19 +1101,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1116,16 +1127,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -1138,16 +1149,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -1160,16 +1171,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -1182,16 +1193,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -1204,16 +1215,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -1260,19 +1271,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1286,102 +1297,102 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1474,13 +1485,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1534,10 +1545,10 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1551,30 +1562,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1582,10 +1593,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1632,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1662,7 +1673,7 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1672,8 +1683,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1685,34 +1696,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>17</v>
@@ -1760,46 +1771,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1971,17 +1982,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -2000,53 +2011,62 @@
         <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3"/>
+  <autoFilter ref="A1:G3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2076,7 +2096,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="48.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2088,16 +2108,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
@@ -2114,13 +2134,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2129,20 +2149,20 @@
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2151,20 +2171,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2173,20 +2193,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2195,20 +2215,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2217,20 +2237,20 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2239,19 +2259,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>10</v>
@@ -2260,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +2317,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2309,10 +2329,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2326,101 +2346,101 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2466,13 +2486,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2486,91 +2506,91 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -2613,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2664,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -28,39 +28,43 @@
     <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -88,6 +92,10 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -115,6 +123,10 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -142,6 +154,10 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -169,6 +185,10 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -180,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -281,10 +301,13 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean volume units</t>
+    <t xml:space="preserve">Volume mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -422,142 +445,148 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-xspecie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + xspecie_1[e] ==&gt; specie_1[c] + xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: xspecie_1 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_2 * xspecie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-xspecie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + xspecie_1[e] ==&gt; specie_1[c] + xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: xspecie_1 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) xspecie_1 ==&gt; biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_2 * xspecie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -1031,9 +1060,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1045,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1089,7 +1118,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1101,19 +1130,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1127,16 +1156,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -1149,16 +1178,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -1171,16 +1200,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -1193,16 +1222,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -1215,16 +1244,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -1271,19 +1300,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1297,102 +1326,102 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1485,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1545,10 +1574,10 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1562,30 +1591,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1593,10 +1622,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1643,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1683,8 +1712,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1696,34 +1725,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>17</v>
@@ -1771,46 +1800,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1982,14 +2011,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2014,59 +2043,68 @@
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="3" t="n">
+        <v>4.58E-018</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
+      <c r="E3" s="3" t="n">
+        <v>1E-013</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2096,7 +2134,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="49.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2108,16 +2146,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
@@ -2134,13 +2172,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2149,20 +2187,20 @@
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2171,20 +2209,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2193,20 +2231,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2215,20 +2253,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2237,20 +2275,20 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2259,19 +2297,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>10</v>
@@ -2280,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2355,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2329,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2346,101 +2384,101 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2459,17 +2497,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
@@ -2486,113 +2524,134 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0.0121655250605964</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0.014142135623731</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="n">
+        <v>0.0223606797749979</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>0.0223606797749979</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="n">
+        <v>0.0316227766016838</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="n">
+        <v>0.0447213595499958</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2633,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2684,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,6 +65,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -96,6 +97,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -127,6 +129,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -158,6 +161,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -189,6 +193,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -200,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="154">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -581,9 +586,6 @@
   </si>
   <si>
     <t xml:space="preserve">dFBA net reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
@@ -1060,9 +1062,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1118,7 +1120,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1491,19 +1493,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1517,18 +1520,21 @@
         <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1574,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>83</v>
@@ -1591,10 +1597,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>115</v>
@@ -1603,18 +1609,18 @@
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1622,10 +1628,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1712,7 +1718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
@@ -1725,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>83</v>
@@ -1734,25 +1740,25 @@
         <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>17</v>
@@ -1800,46 +1806,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2013,10 +2019,10 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
@@ -2134,7 +2140,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2355,7 +2361,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -66,6 +66,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -98,6 +99,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -130,6 +132,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -162,6 +165,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -194,6 +198,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -205,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -253,6 +258,12 @@
   </si>
   <si>
     <t xml:space="preserve">Author email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">Database references</t>
@@ -927,12 +938,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1015,20 +1026,28 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1062,9 +1081,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1076,19 +1095,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1139,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1132,42 +1151,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -1180,16 +1199,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -1202,16 +1221,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -1224,16 +1243,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -1246,16 +1265,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -1302,128 +1321,128 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1465,16 +1484,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1517,25 +1536,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1577,50 +1596,50 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1628,10 +1647,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1678,16 +1697,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1718,8 +1737,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1731,40 +1749,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1806,52 +1824,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1898,34 +1916,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1967,38 +1985,38 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2040,36 +2058,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
@@ -2078,22 +2096,22 @@
         <v>4.58E-018</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
@@ -2102,11 +2120,11 @@
         <v>1E-013</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2158,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.7732793522267"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2152,39 +2170,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2193,20 +2211,20 @@
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2215,20 +2233,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2237,20 +2255,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2259,20 +2277,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2281,20 +2299,20 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2303,19 +2321,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>10</v>
@@ -2324,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2379,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2373,118 +2391,118 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2530,33 +2548,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
@@ -2565,16 +2583,16 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
@@ -2583,16 +2601,16 @@
         <v>0.014142135623731</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
@@ -2601,16 +2619,16 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
@@ -2619,16 +2637,16 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
@@ -2637,16 +2655,16 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
@@ -2655,7 +2673,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -2698,16 +2716,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2749,16 +2767,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -67,6 +67,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -100,6 +101,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -133,6 +135,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -166,6 +169,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -199,6 +203,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -210,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -503,10 +508,13 @@
     <t xml:space="preserve">Reversible</t>
   </si>
   <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
+    <t xml:space="preserve">Flux min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux units</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_1</t>
@@ -940,7 +948,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
@@ -1011,16 +1019,19 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -1081,9 +1092,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1126,20 +1137,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.5627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1165,28 +1176,31 @@
       <c r="G1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -1195,20 +1209,21 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -1217,20 +1232,21 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -1240,19 +1256,20 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -1262,19 +1279,20 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -1321,10 +1339,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
@@ -1347,102 +1365,102 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1536,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>85</v>
@@ -1599,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>85</v>
@@ -1616,30 +1634,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1647,10 +1665,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1749,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>85</v>
@@ -1758,25 +1776,25 @@
         <v>34</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>19</v>
@@ -1824,46 +1842,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2158,7 +2176,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="51.2024291497976"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2379,7 +2397,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -68,6 +68,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -102,6 +103,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -136,6 +138,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -170,6 +173,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -204,6 +208,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -215,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="157">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -1092,9 +1097,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1139,10 +1144,10 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
@@ -1150,7 +1155,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1692,17 +1697,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1718,12 +1723,15 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2176,7 +2184,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2397,7 +2405,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/test_model_bad_species_names.xlsx
+++ b/tests/fixtures/test_model_bad_species_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -69,6 +69,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -104,6 +106,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -139,6 +143,8 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -174,6 +180,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -209,6 +217,8 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -220,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="158">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -504,6 +514,9 @@
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
+    <t xml:space="preserve">Concentration units</t>
+  </si>
+  <si>
     <t xml:space="preserve">Submodel</t>
   </si>
   <si>
@@ -582,7 +595,7 @@
     <t xml:space="preserve">max( specie_1[e], xspecie_1[e] )</t>
   </si>
   <si>
-    <t xml:space="preserve">s^-1</t>
+    <t xml:space="preserve">reaction cell^-1 s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2-forward</t>
@@ -1085,21 +1098,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1111,18 +1124,21 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1144,18 +1160,18 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1167,22 +1183,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1196,16 +1212,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -1219,16 +1235,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -1242,16 +1258,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -1265,16 +1281,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -1291,13 +1307,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -1321,17 +1337,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1344,10 +1360,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
@@ -1359,113 +1375,116 @@
         <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -1559,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>85</v>
@@ -1622,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>85</v>
@@ -1639,30 +1658,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1670,10 +1689,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1697,14 +1716,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1726,12 +1745,15 @@
         <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1775,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>85</v>
@@ -1784,25 +1806,25 @@
         <v>34</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>19</v>
@@ -1850,46 +1872,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2184,7 +2206,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2405,7 +2427,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2770,17 +2792,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -2796,12 +2818,18 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
